--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11.10533246283411</v>
+        <v>10.56472949907906</v>
       </c>
       <c r="C2">
-        <v>6.423518919001897</v>
+        <v>6.212147121844095</v>
       </c>
       <c r="D2">
-        <v>4.63602346283236</v>
+        <v>4.559132871428442</v>
       </c>
       <c r="E2">
-        <v>4.051397441044322</v>
+        <v>3.99283691009699</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.708039662539836</v>
+        <v>8.374954051276625</v>
       </c>
       <c r="C3">
-        <v>4.971567083707924</v>
+        <v>4.809282045285278</v>
       </c>
       <c r="D3">
-        <v>3.71400127888879</v>
+        <v>3.651525841603914</v>
       </c>
       <c r="E3">
-        <v>3.27897710320885</v>
+        <v>3.23283331388647</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9.936666237737363</v>
+        <v>9.361953554425824</v>
       </c>
       <c r="C4">
-        <v>5.791391787711279</v>
+        <v>5.544570533031403</v>
       </c>
       <c r="D4">
-        <v>4.290365160635488</v>
+        <v>4.19838724095648</v>
       </c>
       <c r="E4">
-        <v>3.808534299211174</v>
+        <v>3.743511689471815</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.111534887500897</v>
+        <v>4.940140009134441</v>
       </c>
       <c r="C5">
-        <v>3.089194884419286</v>
+        <v>2.934576195968682</v>
       </c>
       <c r="D5">
-        <v>2.490499828806847</v>
+        <v>2.42626073629948</v>
       </c>
       <c r="E5">
-        <v>2.323406481912731</v>
+        <v>2.286912720564253</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.43262871696662</v>
+        <v>1.426955281458697</v>
       </c>
       <c r="C6">
-        <v>0.8828966962370574</v>
+        <v>0.8753565019908757</v>
       </c>
       <c r="D6">
-        <v>0.6380346067571496</v>
+        <v>0.6342104514815061</v>
       </c>
       <c r="E6">
-        <v>0.5332920078019564</v>
+        <v>0.5354154108338075</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.967538081733128</v>
+        <v>1.909465123111566</v>
       </c>
       <c r="C7">
-        <v>1.240568187660182</v>
+        <v>1.219932049956222</v>
       </c>
       <c r="D7">
-        <v>1.007419350669648</v>
+        <v>1.000518488509308</v>
       </c>
       <c r="E7">
-        <v>0.9161270820409766</v>
+        <v>0.9101152687398403</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3.179642682584997</v>
+        <v>3.162607168728365</v>
       </c>
       <c r="C8">
-        <v>1.988990215703755</v>
+        <v>1.962454242750496</v>
       </c>
       <c r="D8">
-        <v>1.405690355842309</v>
+        <v>1.398601356383271</v>
       </c>
       <c r="E8">
-        <v>1.149973693686015</v>
+        <v>1.149297017754302</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.435851756823798</v>
+        <v>2.414254612245162</v>
       </c>
       <c r="C9">
-        <v>1.51341112896789</v>
+        <v>1.489277673447328</v>
       </c>
       <c r="D9">
-        <v>1.035276013036793</v>
+        <v>1.032885358940224</v>
       </c>
       <c r="E9">
-        <v>0.8347929926995089</v>
+        <v>0.8337038804962449</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4.775566882404127</v>
+        <v>4.478426308014347</v>
       </c>
       <c r="C10">
-        <v>3.193592028774956</v>
+        <v>3.052325732473214</v>
       </c>
       <c r="D10">
-        <v>3.021416956703513</v>
+        <v>2.919303411800664</v>
       </c>
       <c r="E10">
-        <v>3.055288371695732</v>
+        <v>2.973400820959878</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.8191598018164</v>
+        <v>3.624572709325329</v>
       </c>
       <c r="C11">
-        <v>2.583196150884716</v>
+        <v>2.462184757981162</v>
       </c>
       <c r="D11">
-        <v>2.532253444219427</v>
+        <v>2.465559063346524</v>
       </c>
       <c r="E11">
-        <v>2.641068302515418</v>
+        <v>2.583480844780979</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.8702727138205879</v>
+        <v>0.7992521905295669</v>
       </c>
       <c r="C12">
-        <v>0.6521125599187504</v>
+        <v>0.6115296961620851</v>
       </c>
       <c r="D12">
-        <v>0.975679474149533</v>
+        <v>0.9315824148048609</v>
       </c>
       <c r="E12">
-        <v>1.236464338914631</v>
+        <v>1.194841888868514</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.337475049440666</v>
+        <v>3.085090764804561</v>
       </c>
       <c r="C13">
-        <v>2.294162351609225</v>
+        <v>2.167242324121294</v>
       </c>
       <c r="D13">
-        <v>2.392736508874144</v>
+        <v>2.301587582174857</v>
       </c>
       <c r="E13">
-        <v>2.551761071955989</v>
+        <v>2.47231477791947</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.56472949907906</v>
+        <v>10.56472949907907</v>
       </c>
       <c r="C2">
-        <v>6.212147121844095</v>
+        <v>6.212147121844101</v>
       </c>
       <c r="D2">
-        <v>4.559132871428442</v>
+        <v>4.559132871428441</v>
       </c>
       <c r="E2">
-        <v>3.99283691009699</v>
+        <v>3.992836910096988</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.374954051276625</v>
+        <v>8.374954051276632</v>
       </c>
       <c r="C3">
-        <v>4.809282045285278</v>
+        <v>4.809282045285274</v>
       </c>
       <c r="D3">
-        <v>3.651525841603914</v>
+        <v>3.651525841603912</v>
       </c>
       <c r="E3">
-        <v>3.23283331388647</v>
+        <v>3.232833313886473</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,10 +422,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9.361953554425824</v>
+        <v>9.361953554425826</v>
       </c>
       <c r="C4">
-        <v>5.544570533031403</v>
+        <v>5.544570533031406</v>
       </c>
       <c r="D4">
         <v>4.19838724095648</v>
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4.940140009134441</v>
+        <v>4.940140009134447</v>
       </c>
       <c r="C5">
         <v>2.934576195968682</v>
       </c>
       <c r="D5">
-        <v>2.42626073629948</v>
+        <v>2.426260736299478</v>
       </c>
       <c r="E5">
-        <v>2.286912720564253</v>
+        <v>2.286912720564254</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.426955281458697</v>
+        <v>1.426955281458698</v>
       </c>
       <c r="C6">
-        <v>0.8753565019908757</v>
+        <v>0.8753565019908747</v>
       </c>
       <c r="D6">
-        <v>0.6342104514815061</v>
+        <v>0.6342104514815053</v>
       </c>
       <c r="E6">
         <v>0.5354154108338075</v>
@@ -476,13 +476,13 @@
         <v>1.909465123111566</v>
       </c>
       <c r="C7">
-        <v>1.219932049956222</v>
+        <v>1.219932049956221</v>
       </c>
       <c r="D7">
         <v>1.000518488509308</v>
       </c>
       <c r="E7">
-        <v>0.9101152687398403</v>
+        <v>0.9101152687398397</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3.162607168728365</v>
+        <v>3.162607168728361</v>
       </c>
       <c r="C8">
-        <v>1.962454242750496</v>
+        <v>1.962454242750494</v>
       </c>
       <c r="D8">
-        <v>1.398601356383271</v>
+        <v>1.398601356383272</v>
       </c>
       <c r="E8">
-        <v>1.149297017754302</v>
+        <v>1.149297017754301</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.414254612245162</v>
+        <v>2.41425461224516</v>
       </c>
       <c r="C9">
-        <v>1.489277673447328</v>
+        <v>1.489277673447329</v>
       </c>
       <c r="D9">
-        <v>1.032885358940224</v>
+        <v>1.032885358940226</v>
       </c>
       <c r="E9">
-        <v>0.8337038804962449</v>
+        <v>0.8337038804962448</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4.478426308014347</v>
+        <v>4.478426308014354</v>
       </c>
       <c r="C10">
-        <v>3.052325732473214</v>
+        <v>3.05232573247321</v>
       </c>
       <c r="D10">
         <v>2.919303411800664</v>
       </c>
       <c r="E10">
-        <v>2.973400820959878</v>
+        <v>2.973400820959877</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.624572709325329</v>
+        <v>3.624572709325331</v>
       </c>
       <c r="C11">
-        <v>2.462184757981162</v>
+        <v>2.462184757981164</v>
       </c>
       <c r="D11">
-        <v>2.465559063346524</v>
+        <v>2.465559063346526</v>
       </c>
       <c r="E11">
-        <v>2.583480844780979</v>
+        <v>2.583480844780975</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.7992521905295669</v>
+        <v>0.7992521905295688</v>
       </c>
       <c r="C12">
-        <v>0.6115296961620851</v>
+        <v>0.6115296961620866</v>
       </c>
       <c r="D12">
-        <v>0.9315824148048609</v>
+        <v>0.9315824148048627</v>
       </c>
       <c r="E12">
-        <v>1.194841888868514</v>
+        <v>1.194841888868513</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,13 +575,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.085090764804561</v>
+        <v>3.085090764804559</v>
       </c>
       <c r="C13">
-        <v>2.167242324121294</v>
+        <v>2.16724232412129</v>
       </c>
       <c r="D13">
-        <v>2.301587582174857</v>
+        <v>2.301587582174859</v>
       </c>
       <c r="E13">
         <v>2.47231477791947</v>
